--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>7.226520411029047</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>4.72995622393888</v>
+        <v>13.12477391005418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>7.424215059809214</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.08937698422409879</v>
+        <v>14.69926045795804</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.268860212333636</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-3.334973656384144</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-3.168866984049712</v>
+        <v>13.08276537368067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-3.872359107260159</v>
+        <v>-8.992252553594248</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.05913090367777318</v>
+        <v>-19.76480035196674</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-7.266312015249776</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>4.560909432782356</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>7.256638982249464</v>
+        <v>12.31225042954258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>4.530477057343663</v>
+        <v>7.007132997505194</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>6.697237815907764</v>
+        <v>26.6762552377682</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.958243460951929</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>6.186225077364305</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>4.172564826401248</v>
+        <v>12.04357532583245</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>6.833902841285977</v>
+        <v>8.86644397614711</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>6.994430785331041</v>
+        <v>5.982869268853186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>9.469137444079934</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>3.83181543386264</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>2.421686529599976</v>
+        <v>10.6992064911972</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.166536506645224</v>
+        <v>3.001306214623578</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.440230160319024</v>
+        <v>0.08911682035466217</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.358206407534947</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.675338066250331</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.609525540651191</v>
+        <v>4.390489499870109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>2.669880057548091</v>
+        <v>-2.904769335987201</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>4.752197893034138</v>
+        <v>-8.13908495190001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3081076735359067</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.869876812413488</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>6.899744007404074</v>
+        <v>3.50243535103556</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.50293301232252</v>
+        <v>6.148460028297587</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>6.390201317766087</v>
+        <v>9.131012060398724</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.901355411819707</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>4.780657173841774</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>4.483430373590314</v>
+        <v>6.143002545701282</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.829481320500406</v>
+        <v>5.171596082708629</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.7591950432899</v>
+        <v>5.986046065677453</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>5.331683351557981</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>5.497610919404838</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>5.837588357825307</v>
+        <v>4.555278923792572</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>5.100281927437122</v>
+        <v>4.337699953939178</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>5.04660052762711</v>
+        <v>5.703761500281579</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>3.254758369308375</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.974208541416703</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>5.293487100288519</v>
+        <v>0.9515943257393689</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>5.161358932333737</v>
+        <v>4.073887526082065</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.583103206663687</v>
+        <v>1.602827009554897</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>5.246209615995667</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>6.805232588673249</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>7.379533838165231</v>
+        <v>4.251116704684899</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>6.058811533678909</v>
+        <v>7.340964210079881</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>5.415133326105437</v>
+        <v>8.197760099691198</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.924736123992669</v>
+        <v>2.281540236993274</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.759293087203376</v>
+        <v>-4.308894244053674</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.902681694119694</v>
+        <v>5.15263050486201</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.480130617160327</v>
+        <v>6.518301903862911</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.86255966374296</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>2.479415326731482</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.205410808099971</v>
+        <v>4.992093705734701</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>5.760559326160664</v>
+        <v>3.497157880977619</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>9.976546382747763</v>
+        <v>2.970919592955878</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.547276351580986</v>
+        <v>3.436682959168125</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.9075590580332249</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.884502719230132</v>
+        <v>2.727571990295941</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.347921784741104</v>
+        <v>-0.7915059299106297</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>2.764740011159428</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.757736562960323</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>4.288906536806869</v>
+        <v>0.3611963426346065</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.47206002867224</v>
+        <v>2.93113923573054</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-1.710514186497536</v>
+        <v>5.185727774795068</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.840397826549158</v>
+        <v>-2.305533699949835</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>18.68632284940512</v>
+        <v>-6.248031846400004</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.840397826549158</v>
+        <v>-7.578477024949737</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.902399894593799</v>
+        <v>17.08516853885251</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-7.260793671746435</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-1.774340743663894</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-3.88653222228782</v>
+        <v>2.387971016884638</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.103538581680352</v>
+        <v>-0.8212867190516282</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>10.97713304240637</v>
+        <v>-3.88653222228782</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.4839811651348835</v>
+        <v>5.121832664816339</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.611671954279515</v>
+        <v>12.25634856540583</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.4839811651348835</v>
+        <v>4.379227219808146</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.170284978032623</v>
+        <v>3.504204983279191</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>4.097586525396268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.1000684858445622</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-5.324806173859898</v>
+        <v>3.347989317130651</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.465954159663686</v>
+        <v>5.102173676573241</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>6.437780390900905</v>
+        <v>-5.324806173859886</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.06342951900429</v>
+        <v>8.333485306093348</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.179077843116949</v>
+        <v>7.042341419899389</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.06342951900429</v>
+        <v>7.397318165265498</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-4.2930451680384</v>
+        <v>1.541970075766486</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>7.824284864703746</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-3.444832181314605</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-5.598178600215808</v>
+        <v>-2.122471977790918</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-2.275468721311669</v>
+        <v>-0.9123477982208139</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.3141380551509032</v>
+        <v>-5.598178600215808</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.156362896191677</v>
+        <v>0.08405665459807476</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.917046164031255</v>
+        <v>0.4484505192704713</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.156362896191677</v>
+        <v>-0.3046246622258053</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-3.06566802596755</v>
+        <v>1.814369137627603</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.24502235313334</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-1.242563869846236</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.3662470002033791</v>
+        <v>-4.678511595261359</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.5443511672318047</v>
+        <v>-3.378144228902036</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>3.196471841206394</v>
+        <v>-0.366247000203368</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.8205034771073372</v>
+        <v>-2.055826728150212</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.4472755039820808</v>
+        <v>3.376972582720295</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8205034771073372</v>
+        <v>-2.567041707495976</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.9807142729884033</v>
+        <v>-0.6241557099098238</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.735114423676209</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.4654286755194859</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.1271413384857367</v>
+        <v>1.758477003221981</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5250852424143471</v>
+        <v>1.830872485486124</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.1697451685185314</v>
+        <v>-0.1271413384857256</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5750555200350504</v>
+        <v>1.378024997308636</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8184826217086938</v>
+        <v>0.4446401485209472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.64031107104763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>2.021190955273178</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-7.578477024949737</v>
+        <v>-12.52375957300175</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>17.08516853885251</v>
+        <v>-47.88137131999106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>2.387971016884638</v>
+        <v>21.21858006100776</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.8212867190516282</v>
+        <v>6.393774768527782</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-3.88653222228782</v>
+        <v>15.67089147385303</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>5.121832664816339</v>
+        <v>5.866851037823739</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>12.25634856540583</v>
+        <v>16.14645080511217</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>4.379227219808146</v>
+        <v>4.812213101419016</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.504204983279191</v>
+        <v>9.070066421051791</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>3.347989317130651</v>
+        <v>0.2545830626331735</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.102173676573241</v>
+        <v>15.72612644168099</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-5.324806173859886</v>
+        <v>21.93065486026811</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>8.333485306093348</v>
+        <v>7.65308459027223</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>7.042341419899389</v>
+        <v>3.764943356222705</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>7.397318165265498</v>
+        <v>7.775484240847463</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.541970075766486</v>
+        <v>6.225293198277626</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-2.122471977790918</v>
+        <v>9.160754435237916</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.9123477982208139</v>
+        <v>-0.7754456294374545</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-5.598178600215808</v>
+        <v>-5.245870741613656</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.08405665459807476</v>
+        <v>-0.7255213069668365</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.4484505192704713</v>
+        <v>-3.570724939213799</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3046246622258053</v>
+        <v>-0.4725309217548546</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.814369137627603</v>
+        <v>-0.3981352764585111</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-4.678511595261359</v>
+        <v>-4.54008779124131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.378144228902036</v>
+        <v>-5.658719874383733</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.366247000203368</v>
+        <v>-6.559334139663919</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-2.055826728150212</v>
+        <v>-2.227101209415505</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>3.376972582720295</v>
+        <v>2.482871059012237</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.567041707495976</v>
+        <v>-2.497020900647695</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.6241557099098238</v>
+        <v>0.3065176867123709</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.758477003221981</v>
+        <v>1.367318576177423</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.830872485486124</v>
+        <v>2.719742156314631</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.1271413384857256</v>
+        <v>2.20947630983328</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.378024997308636</v>
+        <v>2.163964137318475</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.4446401485209472</v>
+        <v>4.369038437191275</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.64031107104763</v>
+        <v>3.002653050584181</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>2.021190955273178</v>
+        <v>6.721754212725695</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>7.226520411029047</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>13.12477391005418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>7.424215059809214</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.268860212333636</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>13.08276537368067</v>
+        <v>13.08276537368063</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-8.992252553594248</v>
+        <v>-8.992252553594259</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-19.76480035196674</v>
+        <v>-19.76480035196673</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-7.266312015249776</v>
+        <v>-7.266312015249799</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>12.31225042954258</v>
+        <v>12.31225042954256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>7.007132997505194</v>
+        <v>7.007132997505217</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.86644397614711</v>
+        <v>8.866443976147087</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>9.469137444079934</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>10.6992064911972</v>
+        <v>10.69920649119718</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.001306214623578</v>
+        <v>3.0013062146236</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -593,13 +581,13 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>3.358206407534947</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>4.390489499870109</v>
+        <v>4.390489499870132</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-2.904769335987201</v>
+        <v>-2.90476933598719</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -633,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>3.50243535103556</v>
+        <v>3.502435351035582</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>9.131012060398724</v>
+        <v>9.131012060398703</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +649,13 @@
         <v>2014</v>
       </c>
       <c r="C16">
-        <v>3.901355411819707</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>6.143002545701282</v>
+        <v>6.143002545701304</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>4.555278923792572</v>
+        <v>4.555278923792594</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -735,7 +723,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>0.9515943257393689</v>
+        <v>0.9515943257393467</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.073887526082065</v>
+        <v>4.073887526082043</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -763,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>5.246209615995667</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -780,13 +768,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>7.340964210079881</v>
+        <v>7.340964210079837</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>8.197760099691198</v>
+        <v>8.197760099691219</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-4.308894244053674</v>
+        <v>-4.308894244053663</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.15263050486201</v>
+        <v>5.152630504861988</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>6.518301903862911</v>
+        <v>6.518301903862955</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,7 +819,7 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>4.86255966374296</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -848,7 +836,7 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.497157880977619</v>
+        <v>3.497157880977597</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.7915059299106297</v>
+        <v>-0.7915059299106075</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +887,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>2.764740011159428</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.3611963426346065</v>
+        <v>0.3611963426345843</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -933,7 +921,7 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.305533699949835</v>
+        <v>-2.305533699949858</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-12.52375957300175</v>
+        <v>-12.52375957300176</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-47.88137131999106</v>
+        <v>-47.88137131999108</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-7.260793671746435</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>21.21858006100776</v>
+        <v>21.21858006100774</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>6.393774768527782</v>
+        <v>6.393774768527805</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>15.67089147385303</v>
+        <v>15.67089147385301</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>16.14645080511217</v>
+        <v>16.14645080511215</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>4.097586525396268</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>7.775484240847463</v>
+        <v>7.775484240847486</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>7.824284864703746</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.7754456294374545</v>
+        <v>-0.7754456294374767</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-5.245870741613656</v>
+        <v>-5.245870741613645</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1143,7 +1131,7 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-3.570724939213799</v>
+        <v>-3.570724939213787</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.4725309217548546</v>
+        <v>-0.4725309217548324</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.24502235313334</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-5.658719874383733</v>
+        <v>-5.658719874383722</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-6.559334139663919</v>
+        <v>-6.559334139663897</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.497020900647695</v>
+        <v>-2.497020900647684</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3065176867123709</v>
+        <v>0.3065176867123487</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1290,7 +1278,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>3.002653050584181</v>
+        <v>3.002653050584203</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>6.721754212725695</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.560577522109297</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.325305149734723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
